--- a/data/trans_camb/P15A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P15A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 0,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,72; 0,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; -0,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 0,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 4,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 0,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; -0,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 0,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,96%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,27; 9,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,43; 7,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,17; 0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,13; 117,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,69; 48,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,43; 330,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,24; 19,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,49; -2,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,18; 29,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 1,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 0,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 0,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; -0,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 0,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; -0,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,44%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,42; 70,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,96; 31,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,08; 29,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,0; 60,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,88; 30,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,86; 4,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,15; 35,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,37; 2,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,34; -8,83</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 2,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 1,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 1,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 1,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 0,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 1,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 0,77</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,39%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,29; 119,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,08; 184,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,17; 107,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,58; 107,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,83; 113,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,81; 82,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,83; 60,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,41; 83,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,68; 47,81</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -0,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 0,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 1,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 1,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 0,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 0,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 0,91</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,22; -18,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,07; 14,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,81; 63,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,47; 276,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,64; 126,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,29; 121,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,0; 30,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,21; 10,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,98; 45,67</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 0,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 0,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 0,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 1,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 0,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 0,47</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,99%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,19%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,77; 46,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,43; 31,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,98; 68,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,57; 185,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,05; 181,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,95; 118,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,07; 78,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,79; 51,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,19; 26,83</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 2,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 1,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 1,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 1,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 2,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 1,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 1,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 1,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 1,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,18; 225,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,8; 137,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,18; 133,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,06; 51,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,62; 73,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,06; 49,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,31; 52,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,62; 49,14</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,13; 51,59</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; -0,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; -0,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; -0,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 0,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 0,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; -0,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; -0,25</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,11%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,89%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,55%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,01; -0,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,86; -7,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,56; -16,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,17; 36,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,57; 19,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,62; 26,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,88; 5,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,59; -5,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,24; -8,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,27</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; -0,59</t>
+          <t>-7,82; -1,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,58</t>
+          <t>-1,98; 4,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,64</t>
+          <t>-4,2; 0,28</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-67,5%</t>
+          <t>-71,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-44,96%</t>
+          <t>-49,36%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,17; 0,56</t>
+          <t>-93,55; -8,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 330,54</t>
+          <t>-78,37; 325,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,18; 29,11</t>
+          <t>-78,8; 19,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,84</t>
+          <t>-4,35; 0,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,02</t>
+          <t>-3,68; -0,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; -0,43</t>
+          <t>-3,57; -0,55</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,04%</t>
+          <t>-41,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-61,81%</t>
+          <t>-66,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,44%</t>
+          <t>-54,26%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,08; 29,79</t>
+          <t>-76,35; 28,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,86; 4,66</t>
+          <t>-90,34; -5,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,34; -8,83</t>
+          <t>-75,48; -10,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,43</t>
+          <t>-1,98; 1,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,95</t>
+          <t>-1,78; 0,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,77</t>
+          <t>-1,41; 0,79</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,0%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>-11,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>-15,33%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,17; 107,03</t>
+          <t>-66,51; 106,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,81; 82,7</t>
+          <t>-66,58; 84,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,68; 47,81</t>
+          <t>-54,45; 50,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,49</t>
+          <t>-4,21; 0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,14</t>
+          <t>-1,96; 1,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,91</t>
+          <t>-2,05; 0,69</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,42%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>-12,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-26,31%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 63,38</t>
+          <t>-79,83; 25,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 121,91</t>
+          <t>-64,52; 115,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 45,67</t>
+          <t>-59,1; 33,62</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,49</t>
+          <t>-3,38; 0,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,52</t>
+          <t>-1,94; 1,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,47</t>
+          <t>-2,03; 0,46</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-51,29%</t>
+          <t>-51,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,19%</t>
+          <t>-27,69%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,98; 68,06</t>
+          <t>-82,85; 70,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 118,25</t>
+          <t>-52,77; 116,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 26,83</t>
+          <t>-60,23; 26,45</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,84</t>
+          <t>-1,35; 3,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,68</t>
+          <t>-2,24; 1,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,49</t>
+          <t>-1,91; 1,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,78</t>
+          <t>-1,37; 3,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,42</t>
+          <t>-1,05; 4,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,76</t>
+          <t>-3,07; 2,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,56</t>
+          <t>-0,65; 2,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,44</t>
+          <t>-0,91; 2,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,42</t>
+          <t>-1,7; 1,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 225,5</t>
+          <t>-63,44; 455,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 137,32</t>
+          <t>-85,34; 273,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,18; 133,57</t>
+          <t>-72,0; 272,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 51,82</t>
+          <t>-38,46; 249,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 73,44</t>
+          <t>-33,81; 282,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 49,31</t>
+          <t>-69,3; 113,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 52,83</t>
+          <t>-24,97; 212,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 49,14</t>
+          <t>-32,47; 184,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 51,59</t>
+          <t>-54,28; 103,56</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,75; -0,02</t>
+          <t>-2,75; 3,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; -0,26</t>
+          <t>-2,57; 3,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; -0,57</t>
+          <t>-3,06; 2,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,85</t>
+          <t>-5,58; 1,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,46</t>
+          <t>-5,07; 2,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,6</t>
+          <t>-4,23; 2,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,16</t>
+          <t>-3,51; 1,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; -0,18</t>
+          <t>-3,43; 1,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; -0,25</t>
+          <t>-2,49; 1,94</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-23,62%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-30,11%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-39,53%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-27,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-6,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>-17,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-21,89%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-24,55%</t>
+          <t>-4,42%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-66,49; 281,76</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-59,41; 309,22</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-60,63; 231,41</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-62,15; 40,96</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-59,86; 48,61</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; 58,59</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-53,31; 42,7</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-51,74; 42,5</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-36,07; 56,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; -0,02</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; -0,26</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; -0,7</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 0,85</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 0,46</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 0,51</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,16</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; -0,18</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; -0,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-23,62%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-30,11%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-43,88%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-11,06%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-10,01%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-13,61%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-21,89%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-29,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-41,01; -0,92</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-47,86; -7,2</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-55,56; -16,72</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-60,18; -20,63</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-24,17; 36,3</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-34,57; 19,82</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-28,62; 26,33</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-32,79; 21,97</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-28,88; 5,63</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-36,59; -5,73</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-38,24; -8,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-43,33; -12,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P15A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,52</t>
+          <t>-5,25; 0,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,33</t>
+          <t>-5,64; 0,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; -1,3</t>
+          <t>-7,67; -1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,53</t>
+          <t>-2,26; 1,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,55</t>
+          <t>-2,71; 0,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,68</t>
+          <t>-1,7; 4,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,65</t>
+          <t>-3,07; 0,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; -0,11</t>
+          <t>-3,68; -0,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,28</t>
+          <t>-4,33; 0,46</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,27; 9,95</t>
+          <t>-63,13; 14,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,43; 7,4</t>
+          <t>-67,41; 9,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,55; -8,03</t>
+          <t>-93,83; -11,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 117,79</t>
+          <t>-66,85; 134,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,69; 48,31</t>
+          <t>-84,48; 77,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,37; 325,0</t>
+          <t>-70,5; 352,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 19,08</t>
+          <t>-54,73; 15,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -2,82</t>
+          <t>-64,66; -1,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,8; 19,57</t>
+          <t>-82,6; 16,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,54</t>
+          <t>-2,36; 2,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,14</t>
+          <t>-3,16; 1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,69</t>
+          <t>-4,32; 0,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,97</t>
+          <t>-2,79; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,44</t>
+          <t>-3,2; 0,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,35</t>
+          <t>-3,77; -0,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,1</t>
+          <t>-2,16; 1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 0,08</t>
+          <t>-2,61; 0,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,55</t>
+          <t>-3,56; -0,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 70,19</t>
+          <t>-39,6; 70,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,96; 31,54</t>
+          <t>-54,14; 38,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,35; 28,54</t>
+          <t>-75,44; 29,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 60,99</t>
+          <t>-69,01; 74,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,88; 30,6</t>
+          <t>-78,92; 27,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,34; -5,91</t>
+          <t>-90,35; -1,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 35,4</t>
+          <t>-43,04; 33,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 2,89</t>
+          <t>-56,46; 9,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,48; -10,77</t>
+          <t>-77,99; -11,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,76</t>
+          <t>-1,68; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,62</t>
+          <t>-1,07; 2,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,38</t>
+          <t>-2,09; 1,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,18</t>
+          <t>-1,62; 1,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,27</t>
+          <t>-1,82; 1,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,95</t>
+          <t>-1,8; 1,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,97</t>
+          <t>-1,38; 0,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,32</t>
+          <t>-0,9; 1,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,79</t>
+          <t>-1,38; 0,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 119,94</t>
+          <t>-52,83; 139,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 184,57</t>
+          <t>-34,49; 185,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,51; 106,0</t>
+          <t>-66,66; 95,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 107,52</t>
+          <t>-61,62; 133,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 113,48</t>
+          <t>-68,63; 105,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 84,28</t>
+          <t>-62,41; 87,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,83; 60,68</t>
+          <t>-49,7; 59,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 83,3</t>
+          <t>-35,07; 95,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,45; 50,46</t>
+          <t>-52,66; 54,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,73</t>
+          <t>-4,73; -0,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,13</t>
+          <t>-4,49; -0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,69</t>
+          <t>-4,17; 0,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,38</t>
+          <t>-0,63; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,32</t>
+          <t>-2,11; 1,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,04</t>
+          <t>-1,8; 1,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,67</t>
+          <t>-2,02; 0,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,18</t>
+          <t>-2,37; 0,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,69</t>
+          <t>-2,35; 0,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,22; -18,24</t>
+          <t>-86,11; -8,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-78,07; 14,17</t>
+          <t>-80,75; 3,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,83; 25,35</t>
+          <t>-79,68; 26,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 276,1</t>
+          <t>-25,76; 277,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 126,24</t>
+          <t>-71,97; 132,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 115,23</t>
+          <t>-61,98; 127,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 30,39</t>
+          <t>-54,8; 37,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 10,08</t>
+          <t>-64,78; 18,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 33,62</t>
+          <t>-63,74; 22,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,26</t>
+          <t>-3,39; 0,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,07</t>
+          <t>-3,68; -0,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,51</t>
+          <t>-3,33; 0,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,74</t>
+          <t>-1,65; 2,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,56</t>
+          <t>-1,8; 2,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,48</t>
+          <t>-2,23; 1,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,26</t>
+          <t>-1,97; 1,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,83</t>
+          <t>-2,07; 0,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,46</t>
+          <t>-2,21; 0,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-91,77; 46,18</t>
+          <t>-90,28; 48,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-92,43; 31,88</t>
+          <t>-92,94; 14,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 70,36</t>
+          <t>-82,9; 31,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 185,38</t>
+          <t>-50,17; 209,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 181,98</t>
+          <t>-56,99; 221,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 116,26</t>
+          <t>-56,67; 108,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 78,06</t>
+          <t>-58,01; 73,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 51,09</t>
+          <t>-63,02; 61,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,23; 26,45</t>
+          <t>-62,3; 23,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,24</t>
+          <t>-0,95; 3,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,59</t>
+          <t>-2,05; 1,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,69</t>
+          <t>-1,97; 1,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,55</t>
+          <t>-1,58; 3,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,4</t>
+          <t>-0,84; 4,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,22</t>
+          <t>-2,86; 2,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,76</t>
+          <t>-0,49; 2,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,41</t>
+          <t>-0,67; 2,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,52</t>
+          <t>-1,6; 1,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 455,37</t>
+          <t>-58,34; 536,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-85,34; 273,08</t>
+          <t>-82,84; 318,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 272,48</t>
+          <t>-68,53; 258,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 249,11</t>
+          <t>-50,55; 206,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 282,23</t>
+          <t>-27,94; 253,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,3; 113,23</t>
+          <t>-64,45; 135,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 212,18</t>
+          <t>-20,26; 185,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 184,88</t>
+          <t>-26,94; 183,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-54,28; 103,56</t>
+          <t>-50,05; 100,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,61</t>
+          <t>-2,94; 3,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,43</t>
+          <t>-2,95; 3,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,75</t>
+          <t>-2,55; 2,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,7</t>
+          <t>-5,62; 1,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,2</t>
+          <t>-5,28; 2,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,52</t>
+          <t>-3,9; 2,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 1,58</t>
+          <t>-3,51; 1,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,76</t>
+          <t>-3,14; 2,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,94</t>
+          <t>-2,52; 1,79</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 281,76</t>
+          <t>-67,38; 287,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,41; 309,22</t>
+          <t>-66,42; 265,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-60,63; 231,41</t>
+          <t>-54,78; 249,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-62,15; 40,96</t>
+          <t>-62,69; 39,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 48,61</t>
+          <t>-60,91; 51,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 58,59</t>
+          <t>-41,29; 65,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 42,7</t>
+          <t>-53,35; 41,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 42,5</t>
+          <t>-48,13; 55,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 56,64</t>
+          <t>-36,11; 54,63</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,75; -0,02</t>
+          <t>-1,76; -0,02</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,05; -0,26</t>
+          <t>-2,04; -0,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -0,7</t>
+          <t>-2,58; -0,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,85</t>
+          <t>-0,89; 0,8</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,46</t>
+          <t>-1,07; 0,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,51</t>
+          <t>-1,0; 0,68</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,16</t>
+          <t>-1,12; 0,13</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,31; -0,18</t>
+          <t>-1,41; -0,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,55; -0,36</t>
+          <t>-1,53; -0,32</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -0,92</t>
+          <t>-41,63; -0,17</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -7,2</t>
+          <t>-47,55; -8,93</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-60,18; -20,63</t>
+          <t>-60,25; -20,85</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 36,3</t>
+          <t>-27,75; 33,67</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 19,82</t>
+          <t>-33,49; 22,16</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 21,97</t>
+          <t>-31,93; 28,88</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 5,63</t>
+          <t>-30,55; 5,15</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -5,73</t>
+          <t>-38,33; -5,57</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -12,57</t>
+          <t>-43,6; -11,16</t>
         </is>
       </c>
     </row>
